--- a/Banco Central/1/5/Indicadores de coyuntura 2003 a 2021 - Mensual.xlsx
+++ b/Banco Central/1/5/Indicadores de coyuntura 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>Serie</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1970,7 +1973,7 @@
         <v>84.3</v>
       </c>
       <c r="C66">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="D66">
         <v>0.5</v>
@@ -1998,7 +2001,7 @@
         <v>80.09999999999999</v>
       </c>
       <c r="C68">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D68">
         <v>0.3</v>
@@ -2071,7 +2074,7 @@
         <v>81.59999999999999</v>
       </c>
       <c r="D73">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2082,7 +2085,7 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C74">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D74">
         <v>-1.1</v>
@@ -2113,7 +2116,7 @@
         <v>80.90000000000001</v>
       </c>
       <c r="D76">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2267,7 +2270,7 @@
         <v>84</v>
       </c>
       <c r="D87">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2320,7 +2323,7 @@
         <v>85.7</v>
       </c>
       <c r="C91">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="D91">
         <v>3.4</v>
@@ -2351,7 +2354,7 @@
         <v>87.3</v>
       </c>
       <c r="D93">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2365,7 +2368,7 @@
         <v>87.7</v>
       </c>
       <c r="D94">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2603,7 +2606,7 @@
         <v>94.5</v>
       </c>
       <c r="D111">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2614,7 +2617,7 @@
         <v>99.7</v>
       </c>
       <c r="C112">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="D112">
         <v>1.7</v>
@@ -2684,7 +2687,7 @@
         <v>96</v>
       </c>
       <c r="C117">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2894,10 +2897,10 @@
         <v>105.8</v>
       </c>
       <c r="C132">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="D132">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2978,7 +2981,7 @@
         <v>103.7</v>
       </c>
       <c r="C138">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D138">
         <v>0.7</v>
@@ -2992,7 +2995,7 @@
         <v>100.8</v>
       </c>
       <c r="C139">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="D139">
         <v>0.5</v>
@@ -3079,7 +3082,7 @@
         <v>102.7</v>
       </c>
       <c r="D145">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3132,7 +3135,7 @@
         <v>106</v>
       </c>
       <c r="C149">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D149">
         <v>0.4</v>
@@ -3160,7 +3163,7 @@
         <v>103.6</v>
       </c>
       <c r="C151">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="D151">
         <v>1.3</v>
@@ -3188,7 +3191,7 @@
         <v>101.3</v>
       </c>
       <c r="C153">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="D153">
         <v>0.3</v>
@@ -3233,7 +3236,7 @@
         <v>104.8</v>
       </c>
       <c r="D156">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3289,7 +3292,7 @@
         <v>105.7</v>
       </c>
       <c r="D160">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3314,10 +3317,10 @@
         <v>107.4</v>
       </c>
       <c r="C162">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D162">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3328,7 +3331,7 @@
         <v>104.9</v>
       </c>
       <c r="C163">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="D163">
         <v>-0.2</v>
@@ -3384,7 +3387,7 @@
         <v>106.3</v>
       </c>
       <c r="C167">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="D167">
         <v>0.4</v>
@@ -3401,7 +3404,7 @@
         <v>106.4</v>
       </c>
       <c r="D168">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3440,7 +3443,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="C171">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D171">
         <v>-0.6</v>
@@ -3482,7 +3485,7 @@
         <v>108.6</v>
       </c>
       <c r="C174">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D174">
         <v>-0.1</v>
@@ -3496,7 +3499,7 @@
         <v>105.7</v>
       </c>
       <c r="C175">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -3527,7 +3530,7 @@
         <v>108.1</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3552,7 +3555,7 @@
         <v>109.5</v>
       </c>
       <c r="C179">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="D179">
         <v>1.5</v>
@@ -3580,7 +3583,7 @@
         <v>117.8</v>
       </c>
       <c r="C181">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="D181">
         <v>0.9</v>
@@ -3639,7 +3642,7 @@
         <v>111.3</v>
       </c>
       <c r="D185">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3650,10 +3653,10 @@
         <v>113.3</v>
       </c>
       <c r="C186">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="D186">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3664,7 +3667,7 @@
         <v>110.1</v>
       </c>
       <c r="C187">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="D187">
         <v>0.9</v>
@@ -3695,7 +3698,7 @@
         <v>110.4</v>
       </c>
       <c r="D189">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3762,7 +3765,7 @@
         <v>108.6</v>
       </c>
       <c r="C194">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="D194">
         <v>1.1</v>
@@ -3776,7 +3779,7 @@
         <v>103</v>
       </c>
       <c r="C195">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="D195">
         <v>-0.3</v>
@@ -3804,7 +3807,7 @@
         <v>114.3</v>
       </c>
       <c r="C197">
-        <v>113</v>
+        <v>113.1</v>
       </c>
       <c r="D197">
         <v>-0.2</v>
@@ -3818,7 +3821,7 @@
         <v>115.5</v>
       </c>
       <c r="C198">
-        <v>113.5</v>
+        <v>113.7</v>
       </c>
       <c r="D198">
         <v>1.1</v>
@@ -3832,7 +3835,7 @@
         <v>111.2</v>
       </c>
       <c r="C199">
-        <v>113</v>
+        <v>112.8</v>
       </c>
       <c r="D199">
         <v>1.1</v>
@@ -3849,7 +3852,7 @@
         <v>113.3</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3860,10 +3863,10 @@
         <v>113.4</v>
       </c>
       <c r="C201">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="D201">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3905,7 +3908,7 @@
         <v>108.8</v>
       </c>
       <c r="D204">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3919,7 +3922,7 @@
         <v>112.1</v>
       </c>
       <c r="D205">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3958,10 +3961,10 @@
         <v>113.4</v>
       </c>
       <c r="C208">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3975,7 +3978,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="D209">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3986,7 +3989,7 @@
         <v>97.8</v>
       </c>
       <c r="C210">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D210">
         <v>-10.5</v>
@@ -4000,7 +4003,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="C211">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D211">
         <v>-12.6</v>
@@ -4017,7 +4020,7 @@
         <v>99.3</v>
       </c>
       <c r="D212">
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4031,7 +4034,7 @@
         <v>102.3</v>
       </c>
       <c r="D213">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4045,7 +4048,7 @@
         <v>107.1</v>
       </c>
       <c r="D214">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4073,7 +4076,7 @@
         <v>109.2</v>
       </c>
       <c r="D216">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4087,7 +4090,7 @@
         <v>112</v>
       </c>
       <c r="D217">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4126,10 +4129,10 @@
         <v>120</v>
       </c>
       <c r="C220">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="D220">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4154,10 +4157,24 @@
         <v>115.5</v>
       </c>
       <c r="C222">
-        <v>113.8</v>
+        <v>114.1</v>
       </c>
       <c r="D222">
-        <v>-0.4</v>
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223">
+        <v>115.5</v>
+      </c>
+      <c r="C223">
+        <v>116.5</v>
+      </c>
+      <c r="D223">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
